--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1005,7 +1005,7 @@
         <v>104.69</v>
       </c>
       <c r="G5">
-        <v>0.4605263157894737</v>
+        <v>0.46</v>
       </c>
       <c r="H5">
         <v>172</v>
@@ -1059,10 +1059,10 @@
         <v>59.84</v>
       </c>
       <c r="Y5">
-        <v>5.753157894736842</v>
+        <v>5.75</v>
       </c>
       <c r="Z5">
-        <v>0.8368421052631581</v>
+        <v>0.84</v>
       </c>
       <c r="AA5">
         <v>100</v>
